--- a/smpApp/管理.xlsx
+++ b/smpApp/管理.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="目录结构" sheetId="1" r:id="rId1"/>
-    <sheet name="设计原则" sheetId="5" r:id="rId2"/>
-    <sheet name="api" sheetId="2" r:id="rId3"/>
-    <sheet name="计划" sheetId="3" r:id="rId4"/>
-    <sheet name="IT资源信息" sheetId="4" r:id="rId5"/>
+    <sheet name="IT资源信息" sheetId="4" r:id="rId1"/>
+    <sheet name="目录结构" sheetId="1" r:id="rId2"/>
+    <sheet name="设计原则" sheetId="5" r:id="rId3"/>
+    <sheet name="api" sheetId="2" r:id="rId4"/>
+    <sheet name="计划" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="126">
   <si>
     <t>一级</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -484,6 +484,21 @@
   </si>
   <si>
     <t>#d9d9d9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目代码地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/thorlove/iwxteam.git</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wx0f48143e4aa07fae</t>
+  </si>
+  <si>
+    <t>AppID(小程序ID)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,7 +506,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,16 +546,29 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF353535"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -563,13 +591,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE7E7EB"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -587,6 +624,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1169,6 +1209,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="49.75" customWidth="1"/>
+    <col min="2" max="2" width="53.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14.25" thickBot="1">
+      <c r="A1" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14.25" thickBot="1">
+      <c r="A2" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -1778,12 +1855,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1915,7 +1992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1931,7 +2008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1945,17 +2022,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>